--- a/CoSMapsPSAW.xlsx
+++ b/CoSMapsPSAW.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D&amp;D\CurseOfStrahd\CoS-Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76CD877-7F77-4A54-9070-94DBE076389A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BC925F-977A-4F8B-B48B-C8BB89D5D9EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2754" uniqueCount="1768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757" uniqueCount="1771">
   <si>
     <t>Post Title</t>
   </si>
@@ -5327,6 +5327,15 @@
   </si>
   <si>
     <t>Wolves' Den</t>
+  </si>
+  <si>
+    <t>Tag1</t>
+  </si>
+  <si>
+    <t>Tag2</t>
+  </si>
+  <si>
+    <t>Tag3</t>
   </si>
 </sst>
 </file>
@@ -5364,7 +5373,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -5387,11 +5396,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5401,6 +5421,9 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5718,10 +5741,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H485"/>
+  <dimension ref="A1:J485"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H473" sqref="H473"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5732,7 +5755,7 @@
     <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5748,14 +5771,23 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1769</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>1770</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -5775,7 +5807,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -5795,7 +5827,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -5815,7 +5847,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -5835,7 +5867,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -5855,7 +5887,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -5872,7 +5904,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -5889,7 +5921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -5906,7 +5938,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -5929,7 +5961,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -5946,7 +5978,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -5963,7 +5995,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -5986,7 +6018,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -6006,7 +6038,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -6023,7 +6055,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>59</v>
       </c>
